--- a/Test.xlsx
+++ b/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w10\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02675400-31AC-4B83-8941-E3CDF4C39666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34678A72-0E0C-4BA1-9AD1-517D59D6F15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
   <si>
     <t>Nombre del Proyecto</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Jaques Nicolas</t>
   </si>
   <si>
-    <t>Ventas de Perfumes</t>
-  </si>
-  <si>
     <t>Prueba #</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
     <t>N° 0011</t>
   </si>
   <si>
-    <t>N° 0012</t>
-  </si>
-  <si>
     <t>Registrar Usuario</t>
   </si>
   <si>
@@ -150,13 +144,46 @@
     <t>Eliminar Publicacion</t>
   </si>
   <si>
-    <t>Crear Comentario</t>
-  </si>
-  <si>
-    <t>Editar Comentario</t>
-  </si>
-  <si>
-    <t>Eliminar Comentario</t>
+    <t>Registra Usuario</t>
+  </si>
+  <si>
+    <t>Inicia Sesion</t>
+  </si>
+  <si>
+    <t>Logout OK</t>
+  </si>
+  <si>
+    <t>Crea Avatar</t>
+  </si>
+  <si>
+    <t>Edita Avatar</t>
+  </si>
+  <si>
+    <t>Crea Publicacion</t>
+  </si>
+  <si>
+    <t>Edita Publicacion</t>
+  </si>
+  <si>
+    <t>Elimina Publicacion</t>
+  </si>
+  <si>
+    <t>Crear Link Social</t>
+  </si>
+  <si>
+    <t>Guardar Link Social</t>
+  </si>
+  <si>
+    <t>Editar Link Social</t>
+  </si>
+  <si>
+    <t>Reseña de perfumes</t>
+  </si>
+  <si>
+    <t>Guarda Correctamente</t>
+  </si>
+  <si>
+    <t>Editar Links</t>
   </si>
 </sst>
 </file>
@@ -181,11 +208,14 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Segoe UI"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -223,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -242,6 +272,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -260,55 +291,47 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -318,7 +341,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>266701</xdr:colOff>
+          <xdr:colOff>266700</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -403,7 +426,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE18BE74-3176-40A1-8995-CF278358DD6E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -470,7 +493,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{143E10BC-A630-46F0-8BE3-D9E6A3A0F1CE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -537,7 +560,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A251913-D39E-4EF0-9267-0DC2A9DB6DBE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -604,7 +627,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81C52629-97C4-40D8-800F-B930BA70EA13}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -671,7 +694,7 @@
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D983945-6A3E-4302-B0FA-D99C4D5B7497}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -738,7 +761,7 @@
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4AAFC8B-5AF0-4296-82F3-7C31CCBE7258}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -805,7 +828,7 @@
                   <a14:compatExt spid="_x0000_s1033"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31EA188F-49FA-41D6-9D2D-B2E30FC08C7F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -872,74 +895,7 @@
                   <a14:compatExt spid="_x0000_s1034"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2877A4C4-7BB7-4BFC-88C7-3026175927FB}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>17</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>190500</xdr:colOff>
-          <xdr:row>17</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1035" name="Check Box 11" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1035"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA54DF1F-053D-4D2A-A6DD-DED0B0F03DC9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1006,7 +962,7 @@
                   <a14:compatExt spid="_x0000_s1036"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DEE4BEC-7142-4B73-95F3-540E7CF31524}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1073,74 +1029,7 @@
                   <a14:compatExt spid="_x0000_s1037"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{421FEAA5-8AC1-4361-8EC2-677D4F83A56A}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>295275</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1038" name="Check Box 14" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1038"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{353D6BB2-9B82-48F2-9516-F71CAEB50544}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1453,7 +1342,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1462,7 +1351,7 @@
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1477,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1491,7 +1380,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1505,7 +1394,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1524,145 +1413,226 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="7">
         <v>45174</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="B8" s="7">
+        <v>45177</v>
+      </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="B9" s="7">
+        <v>45177</v>
+      </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="B10" s="7">
+        <v>45177</v>
+      </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="B11" s="7">
+        <v>45177</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="B12" s="7">
+        <v>45177</v>
+      </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="B13" s="7">
+        <v>45177</v>
+      </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="B14" s="7">
+        <v>45177</v>
+      </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="B15" s="7">
+        <v>45177</v>
+      </c>
       <c r="C15" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="7">
+        <v>45181</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="1" t="s">
-        <v>41</v>
+      <c r="B17" s="7">
+        <v>45181</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="1" t="s">
-        <v>43</v>
-      </c>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1026" r:id="rId3" name="Check Box 2">
+            <control shapeId="1026" r:id="rId4" name="Check Box 2">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -1684,7 +1654,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1027" r:id="rId4" name="Check Box 3">
+            <control shapeId="1027" r:id="rId5" name="Check Box 3">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -1706,7 +1676,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1028" r:id="rId5" name="Check Box 4">
+            <control shapeId="1028" r:id="rId6" name="Check Box 4">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -1728,7 +1698,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1029" r:id="rId6" name="Check Box 5">
+            <control shapeId="1029" r:id="rId7" name="Check Box 5">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -1750,7 +1720,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1030" r:id="rId7" name="Check Box 6">
+            <control shapeId="1030" r:id="rId8" name="Check Box 6">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -1772,7 +1742,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1031" r:id="rId8" name="Check Box 7">
+            <control shapeId="1031" r:id="rId9" name="Check Box 7">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -1794,7 +1764,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1032" r:id="rId9" name="Check Box 8">
+            <control shapeId="1032" r:id="rId10" name="Check Box 8">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -1816,7 +1786,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1033" r:id="rId10" name="Check Box 9">
+            <control shapeId="1033" r:id="rId11" name="Check Box 9">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -1838,7 +1808,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1034" r:id="rId11" name="Check Box 10">
+            <control shapeId="1034" r:id="rId12" name="Check Box 10">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -1851,28 +1821,6 @@
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>190500</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1035" r:id="rId12" name="Check Box 11">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>17</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>190500</xdr:colOff>
-                    <xdr:row>17</xdr:row>
                     <xdr:rowOff>171450</xdr:rowOff>
                   </to>
                 </anchor>
@@ -1924,28 +1872,6 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1038" r:id="rId15" name="Check Box 14">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>295275</xdr:colOff>
-                    <xdr:row>18</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>200025</xdr:colOff>
-                    <xdr:row>18</xdr:row>
-                    <xdr:rowOff>152400</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
